--- a/biology/Médecine/Camillo_Bozzolo/Camillo_Bozzolo.xlsx
+++ b/biology/Médecine/Camillo_Bozzolo/Camillo_Bozzolo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Camillo Bozzolo, né à Milan le 30 mai 1845 et mort à Turin le 28 février 1920, est un médecin et homme politique italien.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1866, il combat avec Garibaldi dans le Trentin et en 1870 à Dijon lorsque celui-ci devient commandant de l'armée des Vosges[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1866, il combat avec Garibaldi dans le Trentin et en 1870 à Dijon lorsque celui-ci devient commandant de l'armée des Vosges.
 En 1868, il obtient son doctorat de médecine de l'université de Pavie et poursuit ses études en Autriche et en Allemagne dans les laboratoires de Johann von Oppolzer (en) (1808-1871), Ludwig Traube (1818-1876) et Rudolf Virchow (1821-1902).
-Il est ensuite pathologiste assistant de Giulio Bizzozero (1846-1901) à Turin et, en 1883, professeur et directeur de la clinique médicale de Turin[2].
-En 1910, il est nommé sénateur par le roi Victor-Emmanuel III[1].
+Il est ensuite pathologiste assistant de Giulio Bizzozero (1846-1901) à Turin et, en 1883, professeur et directeur de la clinique médicale de Turin.
+En 1910, il est nommé sénateur par le roi Victor-Emmanuel III.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avec Edoardo Perroncito (1847-1936) et Luigi Pagliani (it) (1847-1931), il découvrit que l'ankylostome (Ancylostoma duodenale) était la cause de l'anémie qui affectait les ouvriers lors de construction du tunnel ferroviaire du Saint-Gothard : ils ont démontré que la transmission de l'ankylostome était liée au fait que les ouvriers avaient de très mauvaises conditions d'hygiène dans les 15 km de tunnel[3]. De plus, Camillo Bozzolo a introduit le thymol comme traitement de l'ankylostomose.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec Edoardo Perroncito (1847-1936) et Luigi Pagliani (it) (1847-1931), il découvrit que l'ankylostome (Ancylostoma duodenale) était la cause de l'anémie qui affectait les ouvriers lors de construction du tunnel ferroviaire du Saint-Gothard : ils ont démontré que la transmission de l'ankylostome était liée au fait que les ouvriers avaient de très mauvaises conditions d'hygiène dans les 15 km de tunnel. De plus, Camillo Bozzolo a introduit le thymol comme traitement de l'ankylostomose.
 Il a décrit le myélome multiple appelé aussi « maladie de Kahler-Bozzolo » ou « maladie de Kahler ».
 </t>
         </is>
@@ -577,7 +593,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le splenomegalie primitive en collaboration avec Ferdinando Micheli (it) (1872-1937), Turin, 1910.
 L’anchilostomiasi e l’anemia che ne conseguita (anchilostomanemia), Giornale internazionale delle scienze mediche, Naples, 1879, no 1, p. 1054-1069, p. 1245-1253.
@@ -609,7 +627,9 @@
           <t>Distinctions et hommages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Grand officier de l'ordre des Saints-Maurice-et-Lazare
  Grand officier de l'ordre de la Couronne d'Italie
